--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\flask-calendar\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Grupo - ITI" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Grupo - ITI" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="LOCAL_MYSQL_DATE_FORMAT" vbProcedure="false">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LOCAL_MYSQL_DATE_FORMAT" vbProcedure="false">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,67 +33,66 @@
     <t xml:space="preserve">CALENDARIO DE EXÁMENES </t>
   </si>
   <si>
-    <t xml:space="preserve">10- D</t>
+    <t>10- D</t>
   </si>
   <si>
     <t xml:space="preserve"> INGENIERIA EN TECNOLOGIAS DE LA INFORMACION SEPTIEMBRE - DICIEMBRE 2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Asignatura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primer Periodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segundo Periodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tercer Periodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuperativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Especial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega de Calificaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negociación Empresarial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditoría de Sistemas de TI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estadística Aplicada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguridad de la Información</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integradora II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópicos Selectos de TI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingles VI</t>
+    <t>Asignatura</t>
+  </si>
+  <si>
+    <t>Primer Periodo</t>
+  </si>
+  <si>
+    <t>Segundo Periodo</t>
+  </si>
+  <si>
+    <t>Tercer Periodo</t>
+  </si>
+  <si>
+    <t>Ordinario</t>
+  </si>
+  <si>
+    <t>Recuperativo</t>
+  </si>
+  <si>
+    <t>Especial</t>
+  </si>
+  <si>
+    <t>Entrega de Calificaciones</t>
+  </si>
+  <si>
+    <t>Negociación Empresarial</t>
+  </si>
+  <si>
+    <t>Auditoría de Sistemas de TI</t>
+  </si>
+  <si>
+    <t>Estadística Aplicada</t>
+  </si>
+  <si>
+    <t>Seguridad de la Información</t>
+  </si>
+  <si>
+    <t>Integradora II</t>
+  </si>
+  <si>
+    <t>Tópicos Selectos de TI</t>
+  </si>
+  <si>
+    <t>Ingles VI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-80A]DDDD&quot;, &quot;DD&quot; de &quot;MMMM&quot; de &quot;YYYY;@"/>
-    <numFmt numFmtId="166" formatCode="[$-80A]DD\-MMM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-80A]dddd&quot;, &quot;dd&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-80A]dd\-mmm"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,26 +103,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -127,7 +115,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -155,7 +143,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -170,7 +158,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -219,157 +207,105 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -428,13 +364,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF212529"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -450,11 +402,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="1 Imagen" descr=""/>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -476,7 +428,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2674623438253" displayName="Tabla2674623438253" ref="A6:G15" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2674623438253" displayName="Tabla2674623438253" ref="A6:G15" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" name="Asignatura"/>
     <tableColumn id="2" name="Primer Periodo"/>
@@ -486,72 +438,334 @@
     <tableColumn id="6" name="Recuperativo"/>
     <tableColumn id="7" name="Especial"/>
   </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:AMK44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10:C13"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="G15" sqref="A6:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="10.67"/>
+    <col min="1" max="1" width="45.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" style="3" customWidth="1"/>
+    <col min="8" max="1025" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="4"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -575,7 +789,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -585,31 +799,31 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="12">
         <v>43377</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="12">
         <v>43410</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="12">
         <v>43440</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="12">
         <v>43447</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="12">
         <v>43474</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="12">
         <v>43474</v>
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
@@ -621,7 +835,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
@@ -633,7 +847,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
@@ -645,7 +859,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
@@ -657,7 +871,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
@@ -669,7 +883,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
@@ -681,7 +895,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
@@ -693,46 +907,46 @@
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
     </row>
-    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
     </row>
-    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
     </row>
-    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
     </row>
-    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
     </row>
-    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
     </row>
-    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
     </row>
-    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
     </row>
-    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
     </row>
-    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
     </row>
   </sheetData>
@@ -741,15 +955,10 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
-  <tableParts>
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>

--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\flask-calendar\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greed\Documents\flask-calendar\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">CALENDARIO DE EXÁMENES </t>
   </si>
@@ -54,34 +54,13 @@
     <t>Ordinario</t>
   </si>
   <si>
-    <t>Recuperativo</t>
-  </si>
-  <si>
-    <t>Especial</t>
-  </si>
-  <si>
     <t>Entrega de Calificaciones</t>
   </si>
   <si>
-    <t>Negociación Empresarial</t>
-  </si>
-  <si>
-    <t>Auditoría de Sistemas de TI</t>
-  </si>
-  <si>
-    <t>Estadística Aplicada</t>
-  </si>
-  <si>
-    <t>Seguridad de la Información</t>
-  </si>
-  <si>
-    <t>Integradora II</t>
-  </si>
-  <si>
-    <t>Tópicos Selectos de TI</t>
-  </si>
-  <si>
-    <t>Ingles VI</t>
+    <t>Extraordinario 1</t>
+  </si>
+  <si>
+    <t>Extraordinario 2</t>
   </si>
 </sst>
 </file>
@@ -236,12 +215,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,6 +272,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,8 +414,8 @@
     <tableColumn id="3" name="Segundo Periodo"/>
     <tableColumn id="4" name="Tercer Periodo"/>
     <tableColumn id="5" name="Ordinario"/>
-    <tableColumn id="6" name="Recuperativo"/>
-    <tableColumn id="7" name="Especial"/>
+    <tableColumn id="6" name="Extraordinario 1"/>
+    <tableColumn id="7" name="Extraordinario 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -711,243 +690,237 @@
   <dimension ref="A1:AMK44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="G15" sqref="A6:G15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" style="3" customWidth="1"/>
-    <col min="8" max="1025" width="10.7109375" style="3"/>
+    <col min="1" max="1" width="45.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="32.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="4"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>43377</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>43410</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>43440</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>43447</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>43474</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>43474</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="35" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
+      <c r="A35" s="21"/>
     </row>
     <row r="36" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="23"/>
+      <c r="A36" s="21"/>
     </row>
     <row r="37" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
+      <c r="A38" s="21"/>
     </row>
     <row r="39" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="23"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="23"/>
+      <c r="A41" s="21"/>
     </row>
     <row r="42" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="23"/>
+      <c r="A42" s="21"/>
     </row>
     <row r="43" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="23"/>
+      <c r="A43" s="21"/>
     </row>
     <row r="44" spans="1:1" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="23"/>
+      <c r="A44" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
